--- a/DIV5_Analysis/ComparedResults/LAVTA_Comparison.xlsx
+++ b/DIV5_Analysis/ComparedResults/LAVTA_Comparison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\ComparePayroll\DIV5_Analysis\ComparedResults\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neild\Desktop\Payroll Analysis\DIV5_Analysis\ComparedResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B6ECEC-106F-4C33-852C-DABD35AC0B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85167D7D-778E-4C64-A3CF-F052EBCA5616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2895" yWindow="2895" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="51">
   <si>
     <t>Metric</t>
   </si>
@@ -46,18 +46,18 @@
     <t>TRIPS</t>
   </si>
   <si>
+    <t>Decreased</t>
+  </si>
+  <si>
+    <t>HOURS</t>
+  </si>
+  <si>
     <t>Increased</t>
   </si>
   <si>
-    <t>HOURS</t>
-  </si>
-  <si>
     <t>OPERATORS</t>
   </si>
   <si>
-    <t>Decreased</t>
-  </si>
-  <si>
     <t>DAYS</t>
   </si>
   <si>
@@ -73,25 +73,67 @@
     <t>Partner</t>
   </si>
   <si>
+    <t>MOLLIQUE, ROMESHA</t>
+  </si>
+  <si>
+    <t>MONAI&amp;SON'S LLC</t>
+  </si>
+  <si>
+    <t>Added</t>
+  </si>
+  <si>
+    <t>JENNINGS, WILLIAM</t>
+  </si>
+  <si>
+    <t>SYNERGY MEDICAL TRANSPORTATION LLC</t>
+  </si>
+  <si>
+    <t>ALLISON, AARON</t>
+  </si>
+  <si>
+    <t>AARON TRANSPORTATION</t>
+  </si>
+  <si>
+    <t>VILCHEZ, CHARLENNE</t>
+  </si>
+  <si>
+    <t>NORTHCAL TRANSPORTATION LLC</t>
+  </si>
+  <si>
+    <t>FOWLER, ANTOINE</t>
+  </si>
+  <si>
+    <t>FOWLER SENIOR TRANSIT LLC</t>
+  </si>
+  <si>
+    <t>HUGO, TAMA</t>
+  </si>
+  <si>
+    <t>HUGO FAMILY TRANSPORTATION</t>
+  </si>
+  <si>
+    <t>ROGERS, JAMES</t>
+  </si>
+  <si>
+    <t>EXPRESS TRANSPORTATION SERVICES, LLC</t>
+  </si>
+  <si>
+    <t>VAUGHN, DUSTIN</t>
+  </si>
+  <si>
+    <t>UMANA, DOMINGO</t>
+  </si>
+  <si>
     <t>EVANS, JOHN</t>
   </si>
   <si>
-    <t>EXPRESS TRANSPORTATION SERVICES, LLC</t>
-  </si>
-  <si>
-    <t>Added</t>
-  </si>
-  <si>
-    <t>MUNOZ, ANA</t>
-  </si>
-  <si>
-    <t>PEOPLE FIRST TRANSIT LLC</t>
-  </si>
-  <si>
-    <t>ROGERS, JAMES</t>
-  </si>
-  <si>
-    <t>LARA, DOUGLAS</t>
+    <t>Removed</t>
+  </si>
+  <si>
+    <t>BROWN, LOVIE</t>
+  </si>
+  <si>
+    <t>HIGHER-SELF LLC</t>
   </si>
   <si>
     <t>SULEIMAN, AHMED</t>
@@ -100,61 +142,34 @@
     <t>NEMIA CARE LLC</t>
   </si>
   <si>
-    <t>MOLLIQUE, ROMESHA</t>
-  </si>
-  <si>
-    <t>MONAI&amp;SON'S LLC</t>
-  </si>
-  <si>
-    <t>Removed</t>
-  </si>
-  <si>
-    <t>GETU BOGALE</t>
+    <t>PARTNER</t>
+  </si>
+  <si>
+    <t>LATEST</t>
+  </si>
+  <si>
+    <t>PREVIOUS</t>
+  </si>
+  <si>
+    <t>CHANGE</t>
+  </si>
+  <si>
+    <t>BUFFINGTON TRANSPORTATION LLC</t>
+  </si>
+  <si>
+    <t>DIAMOND HILL TRANSPORTATION LLC</t>
   </si>
   <si>
     <t>GET CARE TRANSIT LLC</t>
   </si>
   <si>
-    <t>VILCHEZ, CHARLENNE</t>
-  </si>
-  <si>
-    <t>NORTHCAL TRANSPORTATION LLC</t>
-  </si>
-  <si>
-    <t>SILVA, PAUL</t>
-  </si>
-  <si>
-    <t>HUGO, TAMA</t>
-  </si>
-  <si>
-    <t>HUGO FAMILY TRANSPORTATION</t>
-  </si>
-  <si>
-    <t>ALLGOOD, SCOTT</t>
-  </si>
-  <si>
-    <t>PARTNER</t>
-  </si>
-  <si>
-    <t>LATEST</t>
-  </si>
-  <si>
-    <t>PREVIOUS</t>
-  </si>
-  <si>
-    <t>CHANGE</t>
-  </si>
-  <si>
-    <t>BUFFINGTON TRANSPORTATION LLC</t>
+    <t>QUICK RIDES CA</t>
+  </si>
+  <si>
+    <t>TRI VALLEY TRANSPORTATION INC.</t>
   </si>
   <si>
     <t>JORGE TRANSPORTATION</t>
-  </si>
-  <si>
-    <t>SYNERGY MEDICAL TRANSPORTATION LLC</t>
-  </si>
-  <si>
-    <t>TRI VALLEY TRANSPORTATION INC.</t>
   </si>
   <si>
     <t>Date</t>
@@ -189,12 +204,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -213,14 +228,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -569,9 +584,8 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="2" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -597,13 +611,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="2">
-        <v>973</v>
+        <v>1248</v>
       </c>
       <c r="C2" s="2">
-        <v>1018</v>
+        <v>1162</v>
       </c>
       <c r="D2" s="2">
-        <v>45</v>
+        <v>-86</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>6</v>
@@ -614,33 +628,33 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>775.70099999999991</v>
+        <v>735.76200000000006</v>
       </c>
       <c r="C3" s="2">
-        <v>834.70500000000004</v>
+        <v>745.87900000000002</v>
       </c>
       <c r="D3" s="2">
-        <v>59.004000000000133</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>6</v>
+        <v>10.11699999999996</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2">
+        <v>23</v>
+      </c>
+      <c r="D4" s="2">
+        <v>6</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="B4" s="2">
-        <v>16</v>
-      </c>
-      <c r="C4" s="2">
-        <v>15</v>
-      </c>
-      <c r="D4" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -665,13 +679,13 @@
         <v>12</v>
       </c>
       <c r="B6" s="2">
-        <v>23325.45278</v>
+        <v>24750.4903287218</v>
       </c>
       <c r="C6" s="2">
-        <v>26979.472750000001</v>
+        <v>17338.692862825821</v>
       </c>
       <c r="D6" s="2">
-        <v>3654.0199699999939</v>
+        <v>-7411.7974658959874</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>6</v>
@@ -684,7 +698,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -713,7 +727,7 @@
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -724,7 +738,7 @@
       <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -733,65 +747,65 @@
         <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -799,10 +813,10 @@
         <v>31</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -810,10 +824,10 @@
         <v>32</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -821,10 +835,21 @@
         <v>34</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>26</v>
+        <v>35</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -834,7 +859,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -848,170 +873,212 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2">
-        <v>122</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="D2" s="4">
-        <v>-21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="B3" s="2">
-        <v>293</v>
+        <v>118</v>
       </c>
       <c r="C3" s="2">
-        <v>309</v>
-      </c>
-      <c r="D3" s="4">
-        <v>-16</v>
+        <v>189</v>
+      </c>
+      <c r="D3" s="3">
+        <v>-71</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B4" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D4" s="4">
-        <v>-7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B5" s="2">
-        <v>0</v>
+        <v>394</v>
       </c>
       <c r="C5" s="2">
-        <v>10</v>
+        <v>327</v>
       </c>
       <c r="D5" s="4">
-        <v>-10</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B6" s="2">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="D6" s="4">
-        <v>-11</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B7" s="2">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="C7" s="2">
-        <v>5</v>
+        <v>132</v>
       </c>
       <c r="D7" s="4">
-        <v>-5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B8" s="2">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>102</v>
+        <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>83</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B9" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C9" s="2">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D9" s="4">
-        <v>-13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2">
-        <v>147</v>
+        <v>5</v>
       </c>
       <c r="C10" s="2">
-        <v>113</v>
-      </c>
-      <c r="D10" s="3">
-        <v>34</v>
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B11" s="2">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C11" s="2">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="D11" s="3">
-        <v>9</v>
+        <v>-74</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="C12" s="2">
-        <v>134</v>
-      </c>
-      <c r="D12" s="3">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2">
+        <v>17</v>
+      </c>
+      <c r="D13" s="3">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2">
+        <v>299</v>
+      </c>
+      <c r="C14" s="2">
+        <v>229</v>
+      </c>
+      <c r="D14" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="2">
+        <v>73</v>
+      </c>
+      <c r="C15" s="2">
+        <v>222</v>
+      </c>
+      <c r="D15" s="3">
+        <v>-149</v>
       </c>
     </row>
   </sheetData>
@@ -1021,7 +1088,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1035,170 +1102,212 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2">
-        <v>83.36</v>
+        <v>11.02</v>
       </c>
       <c r="C2" s="2">
-        <v>84.85</v>
+        <v>0</v>
       </c>
       <c r="D2" s="4">
-        <v>-1.49</v>
+        <v>11.02</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="B3" s="2">
-        <v>323.88</v>
+        <v>56.95</v>
       </c>
       <c r="C3" s="2">
-        <v>309.64</v>
+        <v>92.95</v>
       </c>
       <c r="D3" s="3">
-        <v>14.24</v>
+        <v>-36</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B4" s="2">
-        <v>0</v>
+        <v>11.57</v>
       </c>
       <c r="C4" s="2">
-        <v>2.4700000000000002</v>
+        <v>2.23</v>
       </c>
       <c r="D4" s="4">
-        <v>-2.4700000000000002</v>
+        <v>9.34</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B5" s="2">
-        <v>0</v>
+        <v>276.89999999999998</v>
       </c>
       <c r="C5" s="2">
-        <v>8.5</v>
+        <v>249.75</v>
       </c>
       <c r="D5" s="4">
-        <v>-8.5</v>
+        <v>27.15</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B6" s="2">
-        <v>99.38</v>
+        <v>7.47</v>
       </c>
       <c r="C6" s="2">
-        <v>104.57</v>
+        <v>0</v>
       </c>
       <c r="D6" s="4">
-        <v>-5.19</v>
+        <v>7.47</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B7" s="2">
-        <v>0</v>
+        <v>102.73</v>
       </c>
       <c r="C7" s="2">
-        <v>4.8</v>
+        <v>97.32</v>
       </c>
       <c r="D7" s="4">
-        <v>-4.8</v>
+        <v>5.41</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B8" s="2">
-        <v>159.63</v>
+        <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>90.79</v>
+        <v>3.23</v>
       </c>
       <c r="D8" s="3">
-        <v>68.84</v>
+        <v>-3.23</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B9" s="2">
-        <v>0</v>
+        <v>3.62</v>
       </c>
       <c r="C9" s="2">
-        <v>10.08</v>
+        <v>0</v>
       </c>
       <c r="D9" s="4">
-        <v>-10.08</v>
+        <v>3.62</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2">
-        <v>76.37</v>
+        <v>2.15</v>
       </c>
       <c r="C10" s="2">
-        <v>67.34</v>
-      </c>
-      <c r="D10" s="3">
-        <v>9.0299999999999994</v>
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2.15</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B11" s="2">
-        <v>23.85</v>
+        <v>35.53</v>
       </c>
       <c r="C11" s="2">
-        <v>23.62</v>
+        <v>81.96</v>
       </c>
       <c r="D11" s="3">
-        <v>0.23</v>
+        <v>-46.43</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2">
-        <v>68.23</v>
+        <v>31.07</v>
       </c>
       <c r="C12" s="2">
-        <v>69.05</v>
+        <v>0</v>
       </c>
       <c r="D12" s="4">
-        <v>-0.82</v>
+        <v>31.07</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1.85</v>
+      </c>
+      <c r="C13" s="2">
+        <v>13.85</v>
+      </c>
+      <c r="D13" s="3">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2">
+        <v>174.7</v>
+      </c>
+      <c r="C14" s="2">
+        <v>119.17</v>
+      </c>
+      <c r="D14" s="4">
+        <v>55.53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="2">
+        <v>30.33</v>
+      </c>
+      <c r="C15" s="2">
+        <v>75.3</v>
+      </c>
+      <c r="D15" s="3">
+        <v>-44.97</v>
       </c>
     </row>
   </sheetData>
@@ -1222,27 +1331,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2">
-        <v>590</v>
+        <v>615</v>
       </c>
       <c r="C2" s="2">
-        <v>590</v>
+        <v>615</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
@@ -1250,7 +1359,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -1264,13 +1373,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B4" s="2">
-        <v>590</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>590</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
@@ -1278,13 +1387,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B5" s="2">
-        <v>1180</v>
+        <v>615</v>
       </c>
       <c r="C5" s="2">
-        <v>1180</v>
+        <v>615</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -1295,18 +1404,18 @@
         <v>19</v>
       </c>
       <c r="B6" s="2">
-        <v>590</v>
+        <v>615</v>
       </c>
       <c r="C6" s="2">
-        <v>590</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>615</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B7" s="2">
         <v>416.72</v>
@@ -1337,7 +1446,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
@@ -1345,198 +1454,198 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
-        <v>45662</v>
+        <v>45761</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
-        <v>45666</v>
+        <v>45755</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <v>45657</v>
+        <v>45757</v>
       </c>
       <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>45661</v>
+        <v>45762</v>
       </c>
       <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
-        <v>45663</v>
+        <v>45758</v>
       </c>
       <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <v>45667</v>
+        <v>45764</v>
       </c>
       <c r="B7" s="2"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <v>45664</v>
+        <v>45763</v>
       </c>
       <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <v>45659</v>
+        <v>45766</v>
       </c>
       <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
-        <v>45658</v>
+        <v>45756</v>
       </c>
       <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
-        <v>45660</v>
+        <v>45754</v>
       </c>
       <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>45669</v>
+        <v>45767</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <v>45668</v>
+        <v>45760</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
-        <v>45665</v>
+        <v>45759</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
-        <v>45656</v>
+        <v>45765</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
-        <v>45654</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>26</v>
+        <v>45750</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
-        <v>45643</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>26</v>
+        <v>45741</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
-        <v>45655</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>26</v>
+        <v>45742</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
-        <v>45642</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>26</v>
+        <v>45745</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
-        <v>45647</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>26</v>
+        <v>45749</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
-        <v>45645</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>26</v>
+        <v>45743</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
-        <v>45646</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>26</v>
+        <v>45748</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
-        <v>45650</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>26</v>
+        <v>45740</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <v>45653</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>26</v>
+        <v>45744</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <v>45644</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>26</v>
+        <v>45752</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
-        <v>45648</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>26</v>
+        <v>45753</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
-        <v>45649</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>26</v>
+        <v>45746</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
-        <v>45651</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>26</v>
+        <v>45751</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
-        <v>45652</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>26</v>
+        <v>45747</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1557,12 +1666,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
